--- a/src/test/test_result/SimpleSum.xlsx
+++ b/src/test/test_result/SimpleSum.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -838,7 +838,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
